--- a/BalanceSheet/UNP_bal.xlsx
+++ b/BalanceSheet/UNP_bal.xlsx
@@ -3889,7 +3889,7 @@
         <v>28351000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>26129000000.0</v>
+        <v>24309000000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>24425000000.0</v>
@@ -4016,7 +4016,7 @@
         <v>29541000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>27033000000.0</v>
+        <v>25200000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>25735000000.0</v>
